--- a/data/pca/factorExposure/factorExposure_2012-02-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01531056752322328</v>
+        <v>-0.01506560198243123</v>
       </c>
       <c r="C2">
-        <v>-0.0297233349562265</v>
+        <v>-0.02531182954290432</v>
       </c>
       <c r="D2">
-        <v>-0.005822813800698622</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007962984040339811</v>
+      </c>
+      <c r="E2">
+        <v>0.01666276026281605</v>
+      </c>
+      <c r="F2">
+        <v>0.01128347324531897</v>
+      </c>
+      <c r="G2">
+        <v>0.01564992326219319</v>
+      </c>
+      <c r="H2">
+        <v>0.05036749458504545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07317309237679759</v>
+        <v>-0.08749188325058059</v>
       </c>
       <c r="C4">
-        <v>-0.0509212416768568</v>
+        <v>-0.03897292906936104</v>
       </c>
       <c r="D4">
-        <v>-0.08063828225460914</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06409552364385478</v>
+      </c>
+      <c r="E4">
+        <v>0.01249083713233184</v>
+      </c>
+      <c r="F4">
+        <v>0.03675390207539886</v>
+      </c>
+      <c r="G4">
+        <v>0.002615620463197865</v>
+      </c>
+      <c r="H4">
+        <v>-0.0371673646853763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1093063225246646</v>
+        <v>-0.1194408966147504</v>
       </c>
       <c r="C6">
-        <v>-0.05280160700423651</v>
+        <v>-0.03436487146575037</v>
       </c>
       <c r="D6">
-        <v>0.0005172141522716627</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01414487768481567</v>
+      </c>
+      <c r="E6">
+        <v>-0.01661142858857172</v>
+      </c>
+      <c r="F6">
+        <v>0.05435606229204445</v>
+      </c>
+      <c r="G6">
+        <v>0.03327271687029519</v>
+      </c>
+      <c r="H6">
+        <v>0.1230948657801403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05076256862203753</v>
+        <v>-0.0643414447796921</v>
       </c>
       <c r="C7">
-        <v>-0.02627687515099637</v>
+        <v>-0.0184435599901946</v>
       </c>
       <c r="D7">
-        <v>-0.04450378099739322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04525955916437485</v>
+      </c>
+      <c r="E7">
+        <v>0.03588652705019784</v>
+      </c>
+      <c r="F7">
+        <v>0.03502847003228295</v>
+      </c>
+      <c r="G7">
+        <v>-0.03786003894601877</v>
+      </c>
+      <c r="H7">
+        <v>-0.00530792140214869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03919938285914498</v>
+        <v>-0.0413806198493834</v>
       </c>
       <c r="C8">
-        <v>-0.01360967784911058</v>
+        <v>-0.00939817816695983</v>
       </c>
       <c r="D8">
-        <v>-0.06019268264515289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02451945845306323</v>
+      </c>
+      <c r="E8">
+        <v>0.02468602517194636</v>
+      </c>
+      <c r="F8">
+        <v>0.05627500588940024</v>
+      </c>
+      <c r="G8">
+        <v>0.05603576756268397</v>
+      </c>
+      <c r="H8">
+        <v>0.008784220855058382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06824894309067457</v>
+        <v>-0.07935596883146828</v>
       </c>
       <c r="C9">
-        <v>-0.04004364881703191</v>
+        <v>-0.02795962836394537</v>
       </c>
       <c r="D9">
-        <v>-0.07114387330857166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06213167913782391</v>
+      </c>
+      <c r="E9">
+        <v>0.03198794773388411</v>
+      </c>
+      <c r="F9">
+        <v>0.03554493919789142</v>
+      </c>
+      <c r="G9">
+        <v>0.007031879646890582</v>
+      </c>
+      <c r="H9">
+        <v>-0.0440910147357013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02844101195243817</v>
+        <v>-0.03305846911346097</v>
       </c>
       <c r="C10">
-        <v>-0.02469776532454762</v>
+        <v>-0.03800353840480638</v>
       </c>
       <c r="D10">
-        <v>0.1679356063871141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1712249958688258</v>
+      </c>
+      <c r="E10">
+        <v>0.04175092554582557</v>
+      </c>
+      <c r="F10">
+        <v>0.0494463547948717</v>
+      </c>
+      <c r="G10">
+        <v>-0.0259288395643287</v>
+      </c>
+      <c r="H10">
+        <v>0.04122022082761984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07202712770348076</v>
+        <v>-0.07671364851512764</v>
       </c>
       <c r="C11">
-        <v>-0.04372036170953372</v>
+        <v>-0.02609077286851548</v>
       </c>
       <c r="D11">
-        <v>-0.06103991250679771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06316130761334147</v>
+      </c>
+      <c r="E11">
+        <v>-0.004172840282699504</v>
+      </c>
+      <c r="F11">
+        <v>0.02968385976242271</v>
+      </c>
+      <c r="G11">
+        <v>-0.001039477512613359</v>
+      </c>
+      <c r="H11">
+        <v>-0.0825054263163178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05916206519340406</v>
+        <v>-0.06820000964866181</v>
       </c>
       <c r="C12">
-        <v>-0.05063840488656848</v>
+        <v>-0.03653766629346133</v>
       </c>
       <c r="D12">
-        <v>-0.04766294494649322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.0486643926466566</v>
+      </c>
+      <c r="E12">
+        <v>0.01392999789885267</v>
+      </c>
+      <c r="F12">
+        <v>0.01982120616336903</v>
+      </c>
+      <c r="G12">
+        <v>0.002478379601864947</v>
+      </c>
+      <c r="H12">
+        <v>-0.03945019913865845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06126044377924352</v>
+        <v>-0.06462136625186944</v>
       </c>
       <c r="C13">
-        <v>-0.03819979281725136</v>
+        <v>-0.02412921330824559</v>
       </c>
       <c r="D13">
-        <v>-0.06081227758331791</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04314052492447665</v>
+      </c>
+      <c r="E13">
+        <v>0.01449190517558852</v>
+      </c>
+      <c r="F13">
+        <v>0.007767703297668497</v>
+      </c>
+      <c r="G13">
+        <v>-0.007065392485699351</v>
+      </c>
+      <c r="H13">
+        <v>-0.04564990372205439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03286177156404446</v>
+        <v>-0.04072852440847304</v>
       </c>
       <c r="C14">
-        <v>-0.03089323287374061</v>
+        <v>-0.0276954754243274</v>
       </c>
       <c r="D14">
-        <v>-0.002215637088939027</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.007894036004354734</v>
+      </c>
+      <c r="E14">
+        <v>0.0326207986961671</v>
+      </c>
+      <c r="F14">
+        <v>0.01697906403727484</v>
+      </c>
+      <c r="G14">
+        <v>0.006301399991337019</v>
+      </c>
+      <c r="H14">
+        <v>-0.05726863784001204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04058038006771676</v>
+        <v>-0.04064436035354072</v>
       </c>
       <c r="C15">
-        <v>-0.01074106147942925</v>
+        <v>-0.004476335513851837</v>
       </c>
       <c r="D15">
-        <v>-0.01719436090201482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.003771171316529437</v>
+      </c>
+      <c r="E15">
+        <v>0.03329325738916519</v>
+      </c>
+      <c r="F15">
+        <v>-0.0006111287965761537</v>
+      </c>
+      <c r="G15">
+        <v>0.02588569364125136</v>
+      </c>
+      <c r="H15">
+        <v>-0.03789501690379011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06131195683822352</v>
+        <v>-0.07081468450938735</v>
       </c>
       <c r="C16">
-        <v>-0.04079605717985853</v>
+        <v>-0.02762474298559063</v>
       </c>
       <c r="D16">
-        <v>-0.04896529033496358</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06186917536313917</v>
+      </c>
+      <c r="E16">
+        <v>0.004730247443072079</v>
+      </c>
+      <c r="F16">
+        <v>0.02550172894805784</v>
+      </c>
+      <c r="G16">
+        <v>-0.00400528655250767</v>
+      </c>
+      <c r="H16">
+        <v>-0.05065559827129723</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06307280038538941</v>
+        <v>-0.06384981638020948</v>
       </c>
       <c r="C20">
-        <v>-0.02533020454778882</v>
+        <v>-0.01053990950195995</v>
       </c>
       <c r="D20">
-        <v>-0.05318586727835542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03857468042460945</v>
+      </c>
+      <c r="E20">
+        <v>0.01912300819383745</v>
+      </c>
+      <c r="F20">
+        <v>0.02778901539927011</v>
+      </c>
+      <c r="G20">
+        <v>0.01550598957799855</v>
+      </c>
+      <c r="H20">
+        <v>-0.04548657737235547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02539351160329622</v>
+        <v>-0.02621166335950125</v>
       </c>
       <c r="C21">
-        <v>0.003405786219177353</v>
+        <v>0.009612879741852673</v>
       </c>
       <c r="D21">
-        <v>-0.02601598591822252</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02562843125298164</v>
+      </c>
+      <c r="E21">
+        <v>0.04523705799229379</v>
+      </c>
+      <c r="F21">
+        <v>-0.01402306713602682</v>
+      </c>
+      <c r="G21">
+        <v>0.007627246030139466</v>
+      </c>
+      <c r="H21">
+        <v>0.04973570460152911</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07772738575741003</v>
+        <v>-0.07319435673335788</v>
       </c>
       <c r="C22">
-        <v>-0.05568173009242853</v>
+        <v>-0.03469652248427545</v>
       </c>
       <c r="D22">
-        <v>-0.1142866831299116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.08154762223817937</v>
+      </c>
+      <c r="E22">
+        <v>0.5989192748965896</v>
+      </c>
+      <c r="F22">
+        <v>-0.1751751359273118</v>
+      </c>
+      <c r="G22">
+        <v>-0.06536818180242683</v>
+      </c>
+      <c r="H22">
+        <v>0.1472365181547001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07868915731326119</v>
+        <v>-0.07393823151654044</v>
       </c>
       <c r="C23">
-        <v>-0.05449197741226126</v>
+        <v>-0.03324234983097549</v>
       </c>
       <c r="D23">
-        <v>-0.1158447555489439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08252040518384104</v>
+      </c>
+      <c r="E23">
+        <v>0.598151247977057</v>
+      </c>
+      <c r="F23">
+        <v>-0.1742021502858632</v>
+      </c>
+      <c r="G23">
+        <v>-0.06408144251136451</v>
+      </c>
+      <c r="H23">
+        <v>0.1428577921459119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07309384849520013</v>
+        <v>-0.08055067616104078</v>
       </c>
       <c r="C24">
-        <v>-0.05046126488077052</v>
+        <v>-0.0340098499188234</v>
       </c>
       <c r="D24">
-        <v>-0.06062261044308127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.060519769265424</v>
+      </c>
+      <c r="E24">
+        <v>0.01854675401870758</v>
+      </c>
+      <c r="F24">
+        <v>0.03612278941139092</v>
+      </c>
+      <c r="G24">
+        <v>0.01227368468831196</v>
+      </c>
+      <c r="H24">
+        <v>-0.04789550286529661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07203436556290335</v>
+        <v>-0.07838890691192846</v>
       </c>
       <c r="C25">
-        <v>-0.0550149219462957</v>
+        <v>-0.03817942247469237</v>
       </c>
       <c r="D25">
-        <v>-0.06694218376234208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05261882711750313</v>
+      </c>
+      <c r="E25">
+        <v>0.01985030937446807</v>
+      </c>
+      <c r="F25">
+        <v>0.02565893540859186</v>
+      </c>
+      <c r="G25">
+        <v>0.02004492599697558</v>
+      </c>
+      <c r="H25">
+        <v>-0.0526728866354242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04554620458225004</v>
+        <v>-0.04811544105616353</v>
       </c>
       <c r="C26">
-        <v>-0.009163589467755393</v>
+        <v>-0.002512869598715353</v>
       </c>
       <c r="D26">
-        <v>-0.01350070014873718</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01703620657614524</v>
+      </c>
+      <c r="E26">
+        <v>0.04701571703490722</v>
+      </c>
+      <c r="F26">
+        <v>0.02964818812682891</v>
+      </c>
+      <c r="G26">
+        <v>-0.009088953263799038</v>
+      </c>
+      <c r="H26">
+        <v>-0.05486725210353159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05373186088987466</v>
+        <v>-0.06191079090542406</v>
       </c>
       <c r="C28">
-        <v>-0.06857545642210792</v>
+        <v>-0.08365371725709139</v>
       </c>
       <c r="D28">
-        <v>0.315241322140813</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3089787496642277</v>
+      </c>
+      <c r="E28">
+        <v>0.03163251683312351</v>
+      </c>
+      <c r="F28">
+        <v>0.05300808231432737</v>
+      </c>
+      <c r="G28">
+        <v>0.03218732185813217</v>
+      </c>
+      <c r="H28">
+        <v>0.04111877248464221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04176885330336916</v>
+        <v>-0.04872666724355887</v>
       </c>
       <c r="C29">
-        <v>-0.02939274294654193</v>
+        <v>-0.02517716479995295</v>
       </c>
       <c r="D29">
-        <v>-0.007603649588116299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.00734512562028048</v>
+      </c>
+      <c r="E29">
+        <v>0.0607627536608864</v>
+      </c>
+      <c r="F29">
+        <v>0.01096785612491134</v>
+      </c>
+      <c r="G29">
+        <v>-0.006776137399372963</v>
+      </c>
+      <c r="H29">
+        <v>-0.07611521127094785</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.126110539978642</v>
+        <v>-0.1310606022289971</v>
       </c>
       <c r="C30">
-        <v>-0.08935889134142566</v>
+        <v>-0.06351110548135769</v>
       </c>
       <c r="D30">
-        <v>-0.09862044669022549</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0670751766165124</v>
+      </c>
+      <c r="E30">
+        <v>0.07992059171093309</v>
+      </c>
+      <c r="F30">
+        <v>-0.009073455633117801</v>
+      </c>
+      <c r="G30">
+        <v>0.08384390062059349</v>
+      </c>
+      <c r="H30">
+        <v>0.04114398798697817</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0442012279612317</v>
+        <v>-0.04867745138181286</v>
       </c>
       <c r="C31">
-        <v>-0.02152243635521871</v>
+        <v>-0.01331059904013771</v>
       </c>
       <c r="D31">
-        <v>-0.02393539183875464</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02762771269258261</v>
+      </c>
+      <c r="E31">
+        <v>0.02560427797923907</v>
+      </c>
+      <c r="F31">
+        <v>0.01283892046168789</v>
+      </c>
+      <c r="G31">
+        <v>-0.02469019357190518</v>
+      </c>
+      <c r="H31">
+        <v>-0.06431517588967264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03770215625267959</v>
+        <v>-0.03844772906929615</v>
       </c>
       <c r="C32">
-        <v>-0.02859233263480742</v>
+        <v>-0.02310125938149818</v>
       </c>
       <c r="D32">
-        <v>-0.02113089040449466</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01206791235109628</v>
+      </c>
+      <c r="E32">
+        <v>0.04971582900768157</v>
+      </c>
+      <c r="F32">
+        <v>-0.01291720146000189</v>
+      </c>
+      <c r="G32">
+        <v>0.02920593876627078</v>
+      </c>
+      <c r="H32">
+        <v>-0.08000770504672888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08425381127513644</v>
+        <v>-0.09626743067624773</v>
       </c>
       <c r="C33">
-        <v>-0.04312142320452845</v>
+        <v>-0.02827940827368582</v>
       </c>
       <c r="D33">
-        <v>-0.06120368188012621</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04540383037566463</v>
+      </c>
+      <c r="E33">
+        <v>0.01355224690774639</v>
+      </c>
+      <c r="F33">
+        <v>0.006535443134113751</v>
+      </c>
+      <c r="G33">
+        <v>-0.005484917442819075</v>
+      </c>
+      <c r="H33">
+        <v>-0.05483866853800053</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05733179533210202</v>
+        <v>-0.06327694489445747</v>
       </c>
       <c r="C34">
-        <v>-0.02625550330048526</v>
+        <v>-0.01314093356315102</v>
       </c>
       <c r="D34">
-        <v>-0.05661721703341566</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05209331538389471</v>
+      </c>
+      <c r="E34">
+        <v>0.006908478582868824</v>
+      </c>
+      <c r="F34">
+        <v>0.01645319050416658</v>
+      </c>
+      <c r="G34">
+        <v>-0.002020498038960774</v>
+      </c>
+      <c r="H34">
+        <v>-0.05534201938585354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03747504780240935</v>
+        <v>-0.03968265415336157</v>
       </c>
       <c r="C35">
-        <v>-0.006573472676756949</v>
+        <v>-0.002663011234997598</v>
       </c>
       <c r="D35">
-        <v>-0.01538268180925998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.009645139946553184</v>
+      </c>
+      <c r="E35">
+        <v>0.01992362003626062</v>
+      </c>
+      <c r="F35">
+        <v>-0.01341987821095724</v>
+      </c>
+      <c r="G35">
+        <v>-0.009792114928295509</v>
+      </c>
+      <c r="H35">
+        <v>-0.0166489985373964</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02282269792987258</v>
+        <v>-0.02887457843052718</v>
       </c>
       <c r="C36">
-        <v>-0.01632186343335092</v>
+        <v>-0.01356306340010583</v>
       </c>
       <c r="D36">
-        <v>-0.02214978960099288</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01524075489437144</v>
+      </c>
+      <c r="E36">
+        <v>0.03328276644833218</v>
+      </c>
+      <c r="F36">
+        <v>0.02164159316934636</v>
+      </c>
+      <c r="G36">
+        <v>-0.00659446920099399</v>
+      </c>
+      <c r="H36">
+        <v>-0.0454974096768745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04027879384216552</v>
+        <v>-0.04436659706317553</v>
       </c>
       <c r="C38">
-        <v>-0.003138944530137635</v>
+        <v>0.001637280806960466</v>
       </c>
       <c r="D38">
-        <v>-0.01666909544643141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01820335444209761</v>
+      </c>
+      <c r="E38">
+        <v>0.05222108920960612</v>
+      </c>
+      <c r="F38">
+        <v>-0.006676352565887242</v>
+      </c>
+      <c r="G38">
+        <v>0.007554464868468782</v>
+      </c>
+      <c r="H38">
+        <v>-0.03419688591800606</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09172897515234907</v>
+        <v>-0.1022073561692524</v>
       </c>
       <c r="C39">
-        <v>-0.07167558695099895</v>
+        <v>-0.05150989328087081</v>
       </c>
       <c r="D39">
-        <v>-0.05838634366340806</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0610892822534058</v>
+      </c>
+      <c r="E39">
+        <v>0.005328202686659414</v>
+      </c>
+      <c r="F39">
+        <v>0.0001316531547203189</v>
+      </c>
+      <c r="G39">
+        <v>0.03472444481158196</v>
+      </c>
+      <c r="H39">
+        <v>-0.04313890138390925</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07660592312115477</v>
+        <v>-0.07146184595448712</v>
       </c>
       <c r="C40">
-        <v>-0.03619283497818206</v>
+        <v>-0.0174927368511611</v>
       </c>
       <c r="D40">
-        <v>-0.001937602631985687</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01064946694642398</v>
+      </c>
+      <c r="E40">
+        <v>0.01920010801849986</v>
+      </c>
+      <c r="F40">
+        <v>-0.05706844156278389</v>
+      </c>
+      <c r="G40">
+        <v>0.05024464609120276</v>
+      </c>
+      <c r="H40">
+        <v>0.09958793573162249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04124457980136574</v>
+        <v>-0.04467862076645836</v>
       </c>
       <c r="C41">
-        <v>-0.004416716684987756</v>
+        <v>0.001741046897710911</v>
       </c>
       <c r="D41">
-        <v>-0.03502642703961816</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03192872901898253</v>
+      </c>
+      <c r="E41">
+        <v>-0.0002091662322776123</v>
+      </c>
+      <c r="F41">
+        <v>-0.01425868134726793</v>
+      </c>
+      <c r="G41">
+        <v>0.009404279849497958</v>
+      </c>
+      <c r="H41">
+        <v>-0.0335665853470806</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05006634481133745</v>
+        <v>-0.05906437453939062</v>
       </c>
       <c r="C43">
-        <v>-0.02406140301163213</v>
+        <v>-0.01698909415116927</v>
       </c>
       <c r="D43">
-        <v>-0.01567480369252404</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02333193025646966</v>
+      </c>
+      <c r="E43">
+        <v>0.02186307581332131</v>
+      </c>
+      <c r="F43">
+        <v>0.01307361777002221</v>
+      </c>
+      <c r="G43">
+        <v>-0.01635973197247639</v>
+      </c>
+      <c r="H43">
+        <v>-0.05315810257427116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09482187890464512</v>
+        <v>-0.09679442941792479</v>
       </c>
       <c r="C44">
-        <v>-0.09241802100697735</v>
+        <v>-0.06834103777552079</v>
       </c>
       <c r="D44">
-        <v>-0.07960988387474434</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05640395048879018</v>
+      </c>
+      <c r="E44">
+        <v>0.0842274209466327</v>
+      </c>
+      <c r="F44">
+        <v>0.05035312012311268</v>
+      </c>
+      <c r="G44">
+        <v>0.02943636818459565</v>
+      </c>
+      <c r="H44">
+        <v>-0.01298509862095493</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02478082350862442</v>
+        <v>-0.03412951157450492</v>
       </c>
       <c r="C46">
-        <v>-0.01337716608177993</v>
+        <v>-0.01146117740520093</v>
       </c>
       <c r="D46">
-        <v>-0.02448581460756836</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03352130066641973</v>
+      </c>
+      <c r="E46">
+        <v>0.03597890445324835</v>
+      </c>
+      <c r="F46">
+        <v>0.01590512597516526</v>
+      </c>
+      <c r="G46">
+        <v>-0.006625462958169452</v>
+      </c>
+      <c r="H46">
+        <v>-0.03720263060017791</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03033315518354996</v>
+        <v>-0.03811463634976058</v>
       </c>
       <c r="C47">
-        <v>-0.02419727003433547</v>
+        <v>-0.02014956395697078</v>
       </c>
       <c r="D47">
-        <v>-0.009890386290730885</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.009188957548738778</v>
+      </c>
+      <c r="E47">
+        <v>0.04655761739873242</v>
+      </c>
+      <c r="F47">
+        <v>0.00915873123296777</v>
+      </c>
+      <c r="G47">
+        <v>-0.04274359406967879</v>
+      </c>
+      <c r="H47">
+        <v>-0.02593653225246756</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.0337679151348915</v>
+        <v>-0.03847653712226576</v>
       </c>
       <c r="C48">
-        <v>-0.0166716997656254</v>
+        <v>-0.009935493239669461</v>
       </c>
       <c r="D48">
-        <v>-0.03046453200562174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0196239628189082</v>
+      </c>
+      <c r="E48">
+        <v>0.04069880908323218</v>
+      </c>
+      <c r="F48">
+        <v>0.006700699472526585</v>
+      </c>
+      <c r="G48">
+        <v>0.01326658004876404</v>
+      </c>
+      <c r="H48">
+        <v>-0.04034438513615329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1610794076179303</v>
+        <v>-0.1900365359272257</v>
       </c>
       <c r="C49">
-        <v>-0.04945581571027203</v>
+        <v>-0.03090678158605526</v>
       </c>
       <c r="D49">
-        <v>0.01123192223936252</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02521325378242083</v>
+      </c>
+      <c r="E49">
+        <v>-0.1509877373026998</v>
+      </c>
+      <c r="F49">
+        <v>0.06413487711130741</v>
+      </c>
+      <c r="G49">
+        <v>-0.0602838760482555</v>
+      </c>
+      <c r="H49">
+        <v>0.2322538096435268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04057355146230882</v>
+        <v>-0.04630227488830823</v>
       </c>
       <c r="C50">
-        <v>-0.01966917654363821</v>
+        <v>-0.01308395194327048</v>
       </c>
       <c r="D50">
-        <v>-0.04001337004121561</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03270851529911898</v>
+      </c>
+      <c r="E50">
+        <v>0.04368026905380225</v>
+      </c>
+      <c r="F50">
+        <v>0.01431170376072998</v>
+      </c>
+      <c r="G50">
+        <v>-0.02113798720747346</v>
+      </c>
+      <c r="H50">
+        <v>-0.067332676718071</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02766458605823448</v>
+        <v>-0.03032510071730928</v>
       </c>
       <c r="C51">
-        <v>-0.01003171211337476</v>
+        <v>-0.004444952572949286</v>
       </c>
       <c r="D51">
-        <v>-0.01040014768398319</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0113522660465665</v>
+      </c>
+      <c r="E51">
+        <v>0.01386162282717524</v>
+      </c>
+      <c r="F51">
+        <v>0.01627716269851194</v>
+      </c>
+      <c r="G51">
+        <v>-0.001485660263219468</v>
+      </c>
+      <c r="H51">
+        <v>0.001731396464468105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1537961426878758</v>
+        <v>-0.1625132254321527</v>
       </c>
       <c r="C53">
-        <v>-0.07387733744339278</v>
+        <v>-0.04960635524676141</v>
       </c>
       <c r="D53">
-        <v>-0.01548458263133651</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01862886906158444</v>
+      </c>
+      <c r="E53">
+        <v>-0.02819862142152034</v>
+      </c>
+      <c r="F53">
+        <v>0.01802396202822871</v>
+      </c>
+      <c r="G53">
+        <v>-0.02405263338942209</v>
+      </c>
+      <c r="H53">
+        <v>-0.1808663087068167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05668745219831604</v>
+        <v>-0.05844294452383969</v>
       </c>
       <c r="C54">
-        <v>-0.02365524317857384</v>
+        <v>-0.01307336909216809</v>
       </c>
       <c r="D54">
-        <v>-0.023816356316952</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01587715058424353</v>
+      </c>
+      <c r="E54">
+        <v>0.04672965682715224</v>
+      </c>
+      <c r="F54">
+        <v>0.007309709296482297</v>
+      </c>
+      <c r="G54">
+        <v>0.01255242147431085</v>
+      </c>
+      <c r="H54">
+        <v>-0.05000474845982338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1006527880191446</v>
+        <v>-0.1037838224185297</v>
       </c>
       <c r="C55">
-        <v>-0.05159749449242191</v>
+        <v>-0.03353865496494294</v>
       </c>
       <c r="D55">
-        <v>-0.02314837397999323</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02235624483775961</v>
+      </c>
+      <c r="E55">
+        <v>0.01140734954734826</v>
+      </c>
+      <c r="F55">
+        <v>0.01636767995120377</v>
+      </c>
+      <c r="G55">
+        <v>-0.0165102083665999</v>
+      </c>
+      <c r="H55">
+        <v>-0.1542196255925174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.150630898573796</v>
+        <v>-0.1624025474663627</v>
       </c>
       <c r="C56">
-        <v>-0.09022030164747154</v>
+        <v>-0.06472074580934811</v>
       </c>
       <c r="D56">
-        <v>-0.01694379187374164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02005080006450863</v>
+      </c>
+      <c r="E56">
+        <v>-0.02369790941570585</v>
+      </c>
+      <c r="F56">
+        <v>0.03272394694771115</v>
+      </c>
+      <c r="G56">
+        <v>-0.03752047674745224</v>
+      </c>
+      <c r="H56">
+        <v>-0.1736390032332585</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1295214921380648</v>
+        <v>-0.1005419986304729</v>
       </c>
       <c r="C58">
-        <v>0.0005619385211733291</v>
+        <v>0.04155926137248161</v>
       </c>
       <c r="D58">
-        <v>-0.02829663734086069</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03653124149711034</v>
+      </c>
+      <c r="E58">
+        <v>0.142520200852556</v>
+      </c>
+      <c r="F58">
+        <v>-0.008928073972242745</v>
+      </c>
+      <c r="G58">
+        <v>-0.01604765177630122</v>
+      </c>
+      <c r="H58">
+        <v>0.2258230397654752</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1225560969232711</v>
+        <v>-0.1362723459991828</v>
       </c>
       <c r="C59">
-        <v>-0.07596357834203807</v>
+        <v>-0.08717035197361118</v>
       </c>
       <c r="D59">
-        <v>0.3601088322059151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3641104351525095</v>
+      </c>
+      <c r="E59">
+        <v>0.02987158525712037</v>
+      </c>
+      <c r="F59">
+        <v>0.01732442056504497</v>
+      </c>
+      <c r="G59">
+        <v>-0.02363883075380983</v>
+      </c>
+      <c r="H59">
+        <v>0.002451203364493539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2044167246245889</v>
+        <v>-0.2336369361065895</v>
       </c>
       <c r="C60">
-        <v>-0.09128834947388929</v>
+        <v>-0.06223758682640375</v>
       </c>
       <c r="D60">
-        <v>-0.02031030963234506</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04190342673001785</v>
+      </c>
+      <c r="E60">
+        <v>-0.09552932004112033</v>
+      </c>
+      <c r="F60">
+        <v>0.05754906850869475</v>
+      </c>
+      <c r="G60">
+        <v>0.02124387702672057</v>
+      </c>
+      <c r="H60">
+        <v>0.1495442281729636</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08199051982145743</v>
+        <v>-0.088907384452255</v>
       </c>
       <c r="C61">
-        <v>-0.05181677901530744</v>
+        <v>-0.03754950409440803</v>
       </c>
       <c r="D61">
-        <v>-0.04315870426126885</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04077764473251071</v>
+      </c>
+      <c r="E61">
+        <v>0.0006097161408021612</v>
+      </c>
+      <c r="F61">
+        <v>0.0001681512688370271</v>
+      </c>
+      <c r="G61">
+        <v>-0.0001449074890861916</v>
+      </c>
+      <c r="H61">
+        <v>-0.06044267749822452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1297280637693834</v>
+        <v>-0.1391289567245588</v>
       </c>
       <c r="C62">
-        <v>-0.06510664788795376</v>
+        <v>-0.04202863257031576</v>
       </c>
       <c r="D62">
-        <v>-0.02527302536653212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03155709890227241</v>
+      </c>
+      <c r="E62">
+        <v>-0.06058392666177873</v>
+      </c>
+      <c r="F62">
+        <v>0.01214972232668136</v>
+      </c>
+      <c r="G62">
+        <v>0.005421236931320652</v>
+      </c>
+      <c r="H62">
+        <v>-0.1905334513691397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0513113670669352</v>
+        <v>-0.05112810452768021</v>
       </c>
       <c r="C63">
-        <v>-0.02420151607375828</v>
+        <v>-0.01377106116705691</v>
       </c>
       <c r="D63">
-        <v>-0.02088583529863612</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02004828799477003</v>
+      </c>
+      <c r="E63">
+        <v>0.04794087678542896</v>
+      </c>
+      <c r="F63">
+        <v>-0.008161202964769189</v>
+      </c>
+      <c r="G63">
+        <v>0.02132057011202842</v>
+      </c>
+      <c r="H63">
+        <v>-0.05446209114723688</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1027537545194271</v>
+        <v>-0.1084158348273733</v>
       </c>
       <c r="C64">
-        <v>-0.02982267526510979</v>
+        <v>-0.01474886355224406</v>
       </c>
       <c r="D64">
-        <v>-0.04195626796345668</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03140469652910632</v>
+      </c>
+      <c r="E64">
+        <v>0.03189969995558244</v>
+      </c>
+      <c r="F64">
+        <v>0.03928600153929791</v>
+      </c>
+      <c r="G64">
+        <v>0.04527113501169756</v>
+      </c>
+      <c r="H64">
+        <v>-0.04075856379535566</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1250942876214537</v>
+        <v>-0.126341984542316</v>
       </c>
       <c r="C65">
-        <v>-0.05882964642827285</v>
+        <v>-0.03840108073697087</v>
       </c>
       <c r="D65">
-        <v>0.0144895765269224</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.007271901417065099</v>
+      </c>
+      <c r="E65">
+        <v>0.00386399706560316</v>
+      </c>
+      <c r="F65">
+        <v>0.05442448453494092</v>
+      </c>
+      <c r="G65">
+        <v>0.06258280308552765</v>
+      </c>
+      <c r="H65">
+        <v>0.1553283945175843</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1465285044196567</v>
+        <v>-0.1551922419068264</v>
       </c>
       <c r="C66">
-        <v>-0.07494406103312372</v>
+        <v>-0.04736300801772375</v>
       </c>
       <c r="D66">
-        <v>-0.1102234551788891</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09429102429345021</v>
+      </c>
+      <c r="E66">
+        <v>-0.02501747286765403</v>
+      </c>
+      <c r="F66">
+        <v>0.009485215354712896</v>
+      </c>
+      <c r="G66">
+        <v>0.04456447453101433</v>
+      </c>
+      <c r="H66">
+        <v>-0.118552435927084</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07335203365189694</v>
+        <v>-0.08417120807468619</v>
       </c>
       <c r="C67">
-        <v>-0.01244315933294633</v>
+        <v>-0.004090512653342798</v>
       </c>
       <c r="D67">
-        <v>-0.02007253158492124</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03032456694569258</v>
+      </c>
+      <c r="E67">
+        <v>0.02037233959056147</v>
+      </c>
+      <c r="F67">
+        <v>0.0202449559319725</v>
+      </c>
+      <c r="G67">
+        <v>-0.01093732947507469</v>
+      </c>
+      <c r="H67">
+        <v>-0.0374303757930126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05906594949529716</v>
+        <v>-0.05660593317644585</v>
       </c>
       <c r="C68">
-        <v>-0.04559066281036446</v>
+        <v>-0.05694191023105637</v>
       </c>
       <c r="D68">
-        <v>0.2529645300539278</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.268965758629742</v>
+      </c>
+      <c r="E68">
+        <v>0.04009130042755647</v>
+      </c>
+      <c r="F68">
+        <v>0.01454082058230329</v>
+      </c>
+      <c r="G68">
+        <v>-0.01710861133768172</v>
+      </c>
+      <c r="H68">
+        <v>-0.003871994151275801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05186607459237482</v>
+        <v>-0.0533344696353912</v>
       </c>
       <c r="C69">
-        <v>-0.01710949810883932</v>
+        <v>-0.006640154951311015</v>
       </c>
       <c r="D69">
-        <v>-0.01932724861815839</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01476756012098686</v>
+      </c>
+      <c r="E69">
+        <v>0.02475075108917228</v>
+      </c>
+      <c r="F69">
+        <v>-0.007990771466768009</v>
+      </c>
+      <c r="G69">
+        <v>-0.02210348578137383</v>
+      </c>
+      <c r="H69">
+        <v>-0.0476662436716776</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004066509050054967</v>
+        <v>-0.02691723280854431</v>
       </c>
       <c r="C70">
-        <v>0.005499293696482389</v>
+        <v>0.0007089280240285225</v>
       </c>
       <c r="D70">
-        <v>0.0002500817200846278</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005806306368309122</v>
+      </c>
+      <c r="E70">
+        <v>-0.02178600201695999</v>
+      </c>
+      <c r="F70">
+        <v>0.01336634635458232</v>
+      </c>
+      <c r="G70">
+        <v>-0.02864894487111858</v>
+      </c>
+      <c r="H70">
+        <v>0.02561163945089336</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05943583221003551</v>
+        <v>-0.05915898524381137</v>
       </c>
       <c r="C71">
-        <v>-0.04772348305300343</v>
+        <v>-0.06304278940893646</v>
       </c>
       <c r="D71">
-        <v>0.2951344220317996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2955805059956931</v>
+      </c>
+      <c r="E71">
+        <v>0.03556611982902148</v>
+      </c>
+      <c r="F71">
+        <v>0.04275843753454227</v>
+      </c>
+      <c r="G71">
+        <v>-0.003266696713144336</v>
+      </c>
+      <c r="H71">
+        <v>-0.008694935565426373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.140923813447219</v>
+        <v>-0.1447417998116288</v>
       </c>
       <c r="C72">
-        <v>-0.06395985662957732</v>
+        <v>-0.03716142196824616</v>
       </c>
       <c r="D72">
-        <v>0.001654069939979279</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.005301701901688779</v>
+      </c>
+      <c r="E72">
+        <v>-0.08945186421621761</v>
+      </c>
+      <c r="F72">
+        <v>-0.162387046134876</v>
+      </c>
+      <c r="G72">
+        <v>0.1206287436194623</v>
+      </c>
+      <c r="H72">
+        <v>-0.01171079703818471</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2807176412667735</v>
+        <v>-0.2891096701023725</v>
       </c>
       <c r="C73">
-        <v>-0.1027383284845945</v>
+        <v>-0.04270997194637301</v>
       </c>
       <c r="D73">
-        <v>-0.04812754055228492</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09513567018783511</v>
+      </c>
+      <c r="E73">
+        <v>-0.2072682288014648</v>
+      </c>
+      <c r="F73">
+        <v>0.1016938378211053</v>
+      </c>
+      <c r="G73">
+        <v>-0.1438907921926427</v>
+      </c>
+      <c r="H73">
+        <v>0.5012841501046825</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08008044759103369</v>
+        <v>-0.09149553690698033</v>
       </c>
       <c r="C74">
-        <v>-0.07663340997556717</v>
+        <v>-0.06123316137238136</v>
       </c>
       <c r="D74">
-        <v>-0.01282947053703756</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02994841850721676</v>
+      </c>
+      <c r="E74">
+        <v>-0.002204162209227856</v>
+      </c>
+      <c r="F74">
+        <v>0.002950541785742004</v>
+      </c>
+      <c r="G74">
+        <v>-0.05649126656521458</v>
+      </c>
+      <c r="H74">
+        <v>-0.112374135109034</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09711246985330521</v>
+        <v>-0.1011860867507025</v>
       </c>
       <c r="C75">
-        <v>-0.05125798327820169</v>
+        <v>-0.02796257608837725</v>
       </c>
       <c r="D75">
-        <v>-0.009195528364032469</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01420696545086423</v>
+      </c>
+      <c r="E75">
+        <v>0.003391872240716433</v>
+      </c>
+      <c r="F75">
+        <v>0.02337012426001358</v>
+      </c>
+      <c r="G75">
+        <v>-0.02348435283291641</v>
+      </c>
+      <c r="H75">
+        <v>-0.1171222527954309</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1314499017660208</v>
+        <v>-0.1409996123170182</v>
       </c>
       <c r="C76">
-        <v>-0.08140019016697937</v>
+        <v>-0.05771479173830717</v>
       </c>
       <c r="D76">
-        <v>-0.04716722457006182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04798383025975159</v>
+      </c>
+      <c r="E76">
+        <v>0.02037728131283163</v>
+      </c>
+      <c r="F76">
+        <v>0.04793560823891718</v>
+      </c>
+      <c r="G76">
+        <v>-0.01837567427671567</v>
+      </c>
+      <c r="H76">
+        <v>-0.2019719238245652</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1166458894893932</v>
+        <v>-0.1089115090774142</v>
       </c>
       <c r="C77">
-        <v>-0.01240308252086235</v>
+        <v>0.01415741373527854</v>
       </c>
       <c r="D77">
-        <v>-0.05427225716376503</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02014048267450039</v>
+      </c>
+      <c r="E77">
+        <v>0.01706166199175484</v>
+      </c>
+      <c r="F77">
+        <v>0.1038184724609347</v>
+      </c>
+      <c r="G77">
+        <v>0.8938341096505558</v>
+      </c>
+      <c r="H77">
+        <v>0.07664963963376949</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1035425370292577</v>
+        <v>-0.1435856727722336</v>
       </c>
       <c r="C78">
-        <v>-0.03746979055571563</v>
+        <v>-0.03388366205141066</v>
       </c>
       <c r="D78">
-        <v>-0.08251433793582301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07895489881086323</v>
+      </c>
+      <c r="E78">
+        <v>0.05405302838161156</v>
+      </c>
+      <c r="F78">
+        <v>0.04659677280091675</v>
+      </c>
+      <c r="G78">
+        <v>0.08456034694965869</v>
+      </c>
+      <c r="H78">
+        <v>0.04773421226260505</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1464857300213551</v>
+        <v>-0.1513219461680708</v>
       </c>
       <c r="C79">
-        <v>-0.07395539452616091</v>
+        <v>-0.0451376612240571</v>
       </c>
       <c r="D79">
-        <v>-0.03165398601632969</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02711301595704724</v>
+      </c>
+      <c r="E79">
+        <v>-0.01999813574683292</v>
+      </c>
+      <c r="F79">
+        <v>0.02286097112890242</v>
+      </c>
+      <c r="G79">
+        <v>-0.03972680694582664</v>
+      </c>
+      <c r="H79">
+        <v>-0.1742176788110673</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04198147244745194</v>
+        <v>-0.04286000157561855</v>
       </c>
       <c r="C80">
-        <v>-0.01816317785617533</v>
+        <v>-0.01273910805835843</v>
       </c>
       <c r="D80">
-        <v>-0.03184764142592498</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01255298478596475</v>
+      </c>
+      <c r="E80">
+        <v>-0.02740549136447051</v>
+      </c>
+      <c r="F80">
+        <v>0.01002126855852918</v>
+      </c>
+      <c r="G80">
+        <v>-0.02628044852458034</v>
+      </c>
+      <c r="H80">
+        <v>-0.03280848852363379</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1186633624933294</v>
+        <v>-0.1203529046200093</v>
       </c>
       <c r="C81">
-        <v>-0.06246226497455692</v>
+        <v>-0.03833206448125683</v>
       </c>
       <c r="D81">
-        <v>-0.03124335737755685</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02200116500357046</v>
+      </c>
+      <c r="E81">
+        <v>0.009259978137570365</v>
+      </c>
+      <c r="F81">
+        <v>0.02028766557198699</v>
+      </c>
+      <c r="G81">
+        <v>-0.05876467846105221</v>
+      </c>
+      <c r="H81">
+        <v>-0.1527261021946855</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1312836028870903</v>
+        <v>-0.1320816019868782</v>
       </c>
       <c r="C82">
-        <v>-0.07547827823706139</v>
+        <v>-0.0506378023662792</v>
       </c>
       <c r="D82">
-        <v>-0.01456752334036959</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02398626564476959</v>
+      </c>
+      <c r="E82">
+        <v>-0.01623699996174197</v>
+      </c>
+      <c r="F82">
+        <v>0.05724453754601026</v>
+      </c>
+      <c r="G82">
+        <v>-0.05342362188405674</v>
+      </c>
+      <c r="H82">
+        <v>-0.2188562742643338</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07438224623700571</v>
+        <v>-0.08557323005600222</v>
       </c>
       <c r="C83">
-        <v>0.0144233895989862</v>
+        <v>0.02713296089479155</v>
       </c>
       <c r="D83">
-        <v>-0.02789427800108402</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0335444412324855</v>
+      </c>
+      <c r="E83">
+        <v>0.01935246796887215</v>
+      </c>
+      <c r="F83">
+        <v>0.05823245704456226</v>
+      </c>
+      <c r="G83">
+        <v>-0.07943510387441675</v>
+      </c>
+      <c r="H83">
+        <v>0.05653956668397386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.0287477285966094</v>
+        <v>-0.03732676443540585</v>
       </c>
       <c r="C84">
-        <v>-0.02774199378701816</v>
+        <v>-0.02269304584084576</v>
       </c>
       <c r="D84">
-        <v>-0.0282455128990592</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03125134108294027</v>
+      </c>
+      <c r="E84">
+        <v>0.0281921963297519</v>
+      </c>
+      <c r="F84">
+        <v>-0.05028790784976213</v>
+      </c>
+      <c r="G84">
+        <v>-0.06366089324268163</v>
+      </c>
+      <c r="H84">
+        <v>-0.005130919958514519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1217511506531303</v>
+        <v>-0.1227393940745036</v>
       </c>
       <c r="C85">
-        <v>-0.05057550868246057</v>
+        <v>-0.02652678415411403</v>
       </c>
       <c r="D85">
-        <v>-0.0189271970392862</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01844412197781044</v>
+      </c>
+      <c r="E85">
+        <v>0.01288389638401555</v>
+      </c>
+      <c r="F85">
+        <v>0.03843289144031499</v>
+      </c>
+      <c r="G85">
+        <v>-0.0322180009600073</v>
+      </c>
+      <c r="H85">
+        <v>-0.1588917277444185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0521806647448126</v>
+        <v>-0.05918489923860671</v>
       </c>
       <c r="C86">
-        <v>-0.01915712901111413</v>
+        <v>-0.01075833267530977</v>
       </c>
       <c r="D86">
-        <v>-0.0320471084021953</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02825211604314489</v>
+      </c>
+      <c r="E86">
+        <v>0.05972073865400263</v>
+      </c>
+      <c r="F86">
+        <v>0.03062811701840078</v>
+      </c>
+      <c r="G86">
+        <v>-0.02174312644015963</v>
+      </c>
+      <c r="H86">
+        <v>0.002319046190479694</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1167671451080156</v>
+        <v>-0.1211846435130719</v>
       </c>
       <c r="C87">
-        <v>-0.07137077094217989</v>
+        <v>-0.04040729830039032</v>
       </c>
       <c r="D87">
-        <v>-0.08170130359422552</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07143294953205639</v>
+      </c>
+      <c r="E87">
+        <v>0.01819906111242363</v>
+      </c>
+      <c r="F87">
+        <v>0.006780708317231214</v>
+      </c>
+      <c r="G87">
+        <v>0.1328402567101707</v>
+      </c>
+      <c r="H87">
+        <v>0.04472843150006073</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05252887388932326</v>
+        <v>-0.06064170037118678</v>
       </c>
       <c r="C88">
-        <v>-0.02928559910002598</v>
+        <v>-0.0211762013892019</v>
       </c>
       <c r="D88">
-        <v>-0.02156972183329782</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03194594080897294</v>
+      </c>
+      <c r="E88">
+        <v>0.0178065589695092</v>
+      </c>
+      <c r="F88">
+        <v>0.0108237018508445</v>
+      </c>
+      <c r="G88">
+        <v>0.005650300297991744</v>
+      </c>
+      <c r="H88">
+        <v>-0.05217132791645478</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08758072875635302</v>
+        <v>-0.09452410922365807</v>
       </c>
       <c r="C89">
-        <v>-0.06767642256324764</v>
+        <v>-0.08385450096389127</v>
       </c>
       <c r="D89">
-        <v>0.3281935408664416</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3473467253052585</v>
+      </c>
+      <c r="E89">
+        <v>0.07405155563576669</v>
+      </c>
+      <c r="F89">
+        <v>0.07809488553572011</v>
+      </c>
+      <c r="G89">
+        <v>-0.02759133199668132</v>
+      </c>
+      <c r="H89">
+        <v>0.001394456278997126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07458245212120283</v>
+        <v>-0.07832599101712129</v>
       </c>
       <c r="C90">
-        <v>-0.05514681853315219</v>
+        <v>-0.06880034929886455</v>
       </c>
       <c r="D90">
-        <v>0.3159367751707209</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3066706778661281</v>
+      </c>
+      <c r="E90">
+        <v>0.06678155329572301</v>
+      </c>
+      <c r="F90">
+        <v>0.001100932015530659</v>
+      </c>
+      <c r="G90">
+        <v>-0.002737818507484164</v>
+      </c>
+      <c r="H90">
+        <v>-0.002159962422037334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08920927373913103</v>
+        <v>-0.09081746564377799</v>
       </c>
       <c r="C91">
-        <v>-0.05221584043115251</v>
+        <v>-0.03073926802353774</v>
       </c>
       <c r="D91">
-        <v>-0.02893496670591528</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0307892430252648</v>
+      </c>
+      <c r="E91">
+        <v>0.007839839608547328</v>
+      </c>
+      <c r="F91">
+        <v>0.005387675577154396</v>
+      </c>
+      <c r="G91">
+        <v>-0.05153869143280117</v>
+      </c>
+      <c r="H91">
+        <v>-0.0863502209657738</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07431080597160071</v>
+        <v>-0.07752415173768128</v>
       </c>
       <c r="C92">
-        <v>-0.07141403118032602</v>
+        <v>-0.0865988769337058</v>
       </c>
       <c r="D92">
-        <v>0.3412402389949046</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3449220248033707</v>
+      </c>
+      <c r="E92">
+        <v>0.04286707705736362</v>
+      </c>
+      <c r="F92">
+        <v>0.04937532889003667</v>
+      </c>
+      <c r="G92">
+        <v>0.01788093307201285</v>
+      </c>
+      <c r="H92">
+        <v>-0.01395529837291036</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06555348121256425</v>
+        <v>-0.07437956118122847</v>
       </c>
       <c r="C93">
-        <v>-0.06237742647777086</v>
+        <v>-0.08156903602244109</v>
       </c>
       <c r="D93">
-        <v>0.310554819488093</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.306874652178557</v>
+      </c>
+      <c r="E93">
+        <v>0.02664958831469344</v>
+      </c>
+      <c r="F93">
+        <v>0.03845784541718231</v>
+      </c>
+      <c r="G93">
+        <v>0.0162600905108958</v>
+      </c>
+      <c r="H93">
+        <v>0.01078926439097539</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1363407619561157</v>
+        <v>-0.1288830532596764</v>
       </c>
       <c r="C94">
-        <v>-0.04787778689091547</v>
+        <v>-0.01567933534766676</v>
       </c>
       <c r="D94">
-        <v>-0.04045719108692841</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04480730230596566</v>
+      </c>
+      <c r="E94">
+        <v>-0.01599274454116053</v>
+      </c>
+      <c r="F94">
+        <v>0.01675033822943969</v>
+      </c>
+      <c r="G94">
+        <v>-0.06175688180480357</v>
+      </c>
+      <c r="H94">
+        <v>-0.1047699487954818</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1200746364879546</v>
+        <v>-0.1266906686386088</v>
       </c>
       <c r="C95">
-        <v>-0.02824863978152565</v>
+        <v>-0.00147972683952371</v>
       </c>
       <c r="D95">
-        <v>-0.06772744077383992</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07260417109555493</v>
+      </c>
+      <c r="E95">
+        <v>0.01256902106801331</v>
+      </c>
+      <c r="F95">
+        <v>0.03373804434806817</v>
+      </c>
+      <c r="G95">
+        <v>0.007346504695920401</v>
+      </c>
+      <c r="H95">
+        <v>0.05059636729148949</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2187932059339623</v>
+        <v>-0.2058591271336102</v>
       </c>
       <c r="C97">
-        <v>-0.0507511543312064</v>
+        <v>-0.004170143000165105</v>
       </c>
       <c r="D97">
-        <v>0.1036908098552811</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08561186848190774</v>
+      </c>
+      <c r="E97">
+        <v>-0.2312067491080065</v>
+      </c>
+      <c r="F97">
+        <v>-0.8985565069984042</v>
+      </c>
+      <c r="G97">
+        <v>0.06431598254743885</v>
+      </c>
+      <c r="H97">
+        <v>-0.01500952546061506</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2501783338223257</v>
+        <v>-0.2769886146264762</v>
       </c>
       <c r="C98">
-        <v>-0.06815558513726883</v>
+        <v>-0.02883831262315035</v>
       </c>
       <c r="D98">
-        <v>-0.03272045094611339</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05410790077959923</v>
+      </c>
+      <c r="E98">
+        <v>-0.1785609602600112</v>
+      </c>
+      <c r="F98">
+        <v>0.071826937529956</v>
+      </c>
+      <c r="G98">
+        <v>-0.2289714245325036</v>
+      </c>
+      <c r="H98">
+        <v>0.2301661038752094</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4227749735628886</v>
+        <v>-0.2763952709150796</v>
       </c>
       <c r="C99">
-        <v>0.8899433537387786</v>
+        <v>0.9350659552819253</v>
       </c>
       <c r="D99">
-        <v>0.04884144793043748</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1382605796600637</v>
+      </c>
+      <c r="E99">
+        <v>0.06202941092250076</v>
+      </c>
+      <c r="F99">
+        <v>0.04990493163611743</v>
+      </c>
+      <c r="G99">
+        <v>-0.0215010037296542</v>
+      </c>
+      <c r="H99">
+        <v>-0.07065632562943502</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0416133001612139</v>
+        <v>-0.04867010161521167</v>
       </c>
       <c r="C101">
-        <v>-0.02948509522123581</v>
+        <v>-0.02537928520030222</v>
       </c>
       <c r="D101">
-        <v>-0.008168160651708414</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.007487680921028932</v>
+      </c>
+      <c r="E101">
+        <v>0.06075258745147573</v>
+      </c>
+      <c r="F101">
+        <v>0.01067586301749583</v>
+      </c>
+      <c r="G101">
+        <v>-0.007178542766575389</v>
+      </c>
+      <c r="H101">
+        <v>-0.07491729856287066</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
